--- a/public/uploads/filename.xlsx
+++ b/public/uploads/filename.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t xml:space="preserve">DJARWAL HOTEL </t>
   </si>
@@ -30,13 +30,13 @@
     <t>BUKTI PEMBAYARAN GRUB</t>
   </si>
   <si>
-    <t>NO. BILL    :  19-12-22/DH/2</t>
+    <t>NO. BILL    :  29-12-22/DH/10</t>
   </si>
   <si>
     <t>Perusahaan</t>
   </si>
   <si>
-    <t>: Said Jumadil Akbar</t>
+    <t>: Kiki</t>
   </si>
   <si>
     <t>Company</t>
@@ -45,7 +45,7 @@
     <t>Alamat</t>
   </si>
   <si>
-    <t>: BIREUEN</t>
+    <t>: Tidak Ada Alamat</t>
   </si>
   <si>
     <t>Address</t>
@@ -54,7 +54,7 @@
     <t>Tanggal Pembayaran</t>
   </si>
   <si>
-    <t>: 19 Desember 2022</t>
+    <t>: 29 Desember 2022</t>
   </si>
   <si>
     <t>Payment Date</t>
@@ -81,7 +81,7 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Kamar 102</t>
+    <t>Kamar 103</t>
   </si>
   <si>
     <t>1</t>
@@ -99,13 +99,16 @@
     <t xml:space="preserve">Terbilang                                                 tiga ratus delapan puluh  ribu </t>
   </si>
   <si>
-    <t>Bireuen, 19 Desember 2022</t>
+    <t>Bireuen, 29 Desember 2022</t>
   </si>
   <si>
     <t>GUEST</t>
   </si>
   <si>
     <t>Approved by</t>
+  </si>
+  <si>
+    <t>Kiki</t>
   </si>
   <si>
     <t>Said Jumadil Akbar</t>
@@ -1217,7 +1220,7 @@
         <v>30</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F28" s="40"/>
     </row>

--- a/public/uploads/filename.xlsx
+++ b/public/uploads/filename.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>DJARWAL HOTEL</t>
   </si>
@@ -29,7 +29,7 @@
     <t>No. Reg</t>
   </si>
   <si>
-    <t>: 31-12-22/DH/13</t>
+    <t>: 15-1-23/DH/1</t>
   </si>
   <si>
     <t>V. ROOM</t>
@@ -41,22 +41,22 @@
     <t>No. KTP/SIM</t>
   </si>
   <si>
-    <t>: 1174030609980005</t>
+    <t>: 1111112344232</t>
   </si>
   <si>
     <t>Nama / Name</t>
   </si>
   <si>
-    <t>: Said Jumadil Akbar</t>
-  </si>
-  <si>
-    <t>SUPERIOR</t>
+    <t>: bustamar</t>
+  </si>
+  <si>
+    <t>: Standart</t>
   </si>
   <si>
     <t>Alamat / Address</t>
   </si>
   <si>
-    <t>: jalan malahayati KM 1.5, kec syiah kuala</t>
+    <t>: aceh besar</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -65,7 +65,7 @@
     <t>Tgl Pembayaran</t>
   </si>
   <si>
-    <t>: 31 Desember 2022</t>
+    <t>: 15 Januari 2023</t>
   </si>
   <si>
     <t xml:space="preserve">        </t>
@@ -104,28 +104,25 @@
     <t>Sub Total</t>
   </si>
   <si>
-    <t>29/12/2022</t>
-  </si>
-  <si>
-    <t>31/12/2022</t>
-  </si>
-  <si>
-    <t>206</t>
+    <t>14/1/2023</t>
+  </si>
+  <si>
+    <t>15/1/2023</t>
+  </si>
+  <si>
+    <t>102</t>
   </si>
   <si>
     <t>Rp. 380000</t>
   </si>
   <si>
-    <t>Rp. 760000</t>
-  </si>
-  <si>
-    <t>Rp. 100000</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Rp. 660000</t>
+    <t>Rp. 50000</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Rp. 330000</t>
   </si>
   <si>
     <t xml:space="preserve">Extra Bed  </t>
@@ -140,10 +137,10 @@
     <t>TERBILANG              :</t>
   </si>
   <si>
-    <t xml:space="preserve">tujuh ratus enam puluh  ribu </t>
-  </si>
-  <si>
-    <t>Bireun, 31 Desember 2022</t>
+    <t xml:space="preserve">tiga ratus tiga puluh  ribu </t>
+  </si>
+  <si>
+    <t>Bireun, 15 Januari 2023</t>
   </si>
   <si>
     <t>Bireuen, 25 Juli 2018</t>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>bustamar</t>
   </si>
   <si>
     <t>Said Jumadil Akbar</t>
@@ -1339,18 +1339,18 @@
         <v>31</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P12" s="32"/>
       <c r="Q12" s="32"/>
       <c r="R12" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="S12" s="31" t="s">
+      <c r="T12" s="32" t="s">
         <v>34</v>
-      </c>
-      <c r="T12" s="32" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
@@ -1368,7 +1368,7 @@
     </row>
     <row r="14" ht="17.25" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J14" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
@@ -1379,13 +1379,11 @@
       <c r="Q14" s="35"/>
       <c r="R14" s="35"/>
       <c r="S14" s="36"/>
-      <c r="T14" s="32" t="s">
-        <v>33</v>
-      </c>
+      <c r="T14" s="32"/>
     </row>
     <row r="15" ht="17.25" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J15" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
@@ -1397,7 +1395,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="39"/>
       <c r="T15" s="32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
@@ -1410,7 +1408,7 @@
       </c>
       <c r="O16" s="41"/>
       <c r="P16" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q16" s="22"/>
       <c r="R16" s="42"/>
@@ -1418,11 +1416,11 @@
     </row>
     <row r="17" ht="17.25" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M17" s="44"/>
       <c r="N17" s="44"/>
@@ -1445,7 +1443,7 @@
         <v>18</v>
       </c>
       <c r="R18" s="46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S18" s="46"/>
       <c r="T18" s="46"/>
@@ -1461,7 +1459,7 @@
       <c r="O19" s="7"/>
       <c r="P19" s="47"/>
       <c r="Q19" s="48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R19" s="7" t="s">
         <v>13</v>
@@ -1471,7 +1469,7 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J20" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K20" s="46"/>
       <c r="L20" s="46"/>
@@ -1479,11 +1477,11 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S20" s="46"/>
       <c r="T20" s="46"/>
@@ -1516,12 +1514,12 @@
       <c r="R22" s="50"/>
       <c r="S22" s="21"/>
       <c r="T22" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" ht="17.25" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J23" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>

--- a/public/uploads/filename.xlsx
+++ b/public/uploads/filename.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>DJARWAL HOTEL</t>
   </si>
@@ -29,7 +29,7 @@
     <t>No. Reg</t>
   </si>
   <si>
-    <t>: 15-1-23/DH/1</t>
+    <t>: 16-1-23/DH/6</t>
   </si>
   <si>
     <t>V. ROOM</t>
@@ -41,22 +41,22 @@
     <t>No. KTP/SIM</t>
   </si>
   <si>
-    <t>: 1111112344232</t>
+    <t>: 11341231242353</t>
   </si>
   <si>
     <t>Nama / Name</t>
   </si>
   <si>
-    <t>: bustamar</t>
-  </si>
-  <si>
-    <t>: Standart</t>
+    <t>: UDIN CINA</t>
+  </si>
+  <si>
+    <t>Deluxe</t>
   </si>
   <si>
     <t>Alamat / Address</t>
   </si>
   <si>
-    <t>: aceh besar</t>
+    <t>: MEDAN</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -65,7 +65,7 @@
     <t>Tgl Pembayaran</t>
   </si>
   <si>
-    <t>: 15 Januari 2023</t>
+    <t>: 16 Januari 2023</t>
   </si>
   <si>
     <t xml:space="preserve">        </t>
@@ -104,25 +104,22 @@
     <t>Sub Total</t>
   </si>
   <si>
-    <t>14/1/2023</t>
-  </si>
-  <si>
     <t>15/1/2023</t>
   </si>
   <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>Rp. 380000</t>
-  </si>
-  <si>
-    <t>Rp. 50000</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Rp. 330000</t>
+    <t>16/1/2023</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Rp. 450000</t>
+  </si>
+  <si>
+    <t>Rp. 0</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Extra Bed  </t>
@@ -137,10 +134,10 @@
     <t>TERBILANG              :</t>
   </si>
   <si>
-    <t xml:space="preserve">tiga ratus tiga puluh  ribu </t>
-  </si>
-  <si>
-    <t>Bireun, 15 Januari 2023</t>
+    <t xml:space="preserve">empat ratus lima puluh  ribu </t>
+  </si>
+  <si>
+    <t>Bireun, 16 Januari 2023</t>
   </si>
   <si>
     <t>Bireuen, 25 Juli 2018</t>
@@ -158,10 +155,10 @@
     <t xml:space="preserve">    </t>
   </si>
   <si>
-    <t>bustamar</t>
-  </si>
-  <si>
-    <t>Said Jumadil Akbar</t>
+    <t>UDIN CINA</t>
+  </si>
+  <si>
+    <t>Novita Sari</t>
   </si>
   <si>
     <t>Note: All rates are inclusive all relevant service charge and tax</t>
@@ -1350,7 +1347,7 @@
         <v>33</v>
       </c>
       <c r="T12" s="32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
@@ -1368,7 +1365,7 @@
     </row>
     <row r="14" ht="17.25" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J14" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
@@ -1383,7 +1380,7 @@
     </row>
     <row r="15" ht="17.25" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J15" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
@@ -1395,7 +1392,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="39"/>
       <c r="T15" s="32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
@@ -1408,7 +1405,7 @@
       </c>
       <c r="O16" s="41"/>
       <c r="P16" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q16" s="22"/>
       <c r="R16" s="42"/>
@@ -1416,11 +1413,11 @@
     </row>
     <row r="17" ht="17.25" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J17" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M17" s="44"/>
       <c r="N17" s="44"/>
@@ -1443,7 +1440,7 @@
         <v>18</v>
       </c>
       <c r="R18" s="46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S18" s="46"/>
       <c r="T18" s="46"/>
@@ -1459,7 +1456,7 @@
       <c r="O19" s="7"/>
       <c r="P19" s="47"/>
       <c r="Q19" s="48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R19" s="7" t="s">
         <v>13</v>
@@ -1469,7 +1466,7 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J20" s="46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20" s="46"/>
       <c r="L20" s="46"/>
@@ -1477,11 +1474,11 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S20" s="46"/>
       <c r="T20" s="46"/>
@@ -1514,12 +1511,12 @@
       <c r="R22" s="50"/>
       <c r="S22" s="21"/>
       <c r="T22" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" ht="17.25" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J23" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -1531,14 +1528,14 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S23" s="51"/>
       <c r="T23" s="51"/>
     </row>
     <row r="24" ht="17.25" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
       <c r="J24" s="52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24" s="52"/>
       <c r="L24" s="52"/>

--- a/public/uploads/filename.xlsx
+++ b/public/uploads/filename.xlsx
@@ -29,7 +29,7 @@
     <t>No. Reg</t>
   </si>
   <si>
-    <t>: 27-1-23/DH/2</t>
+    <t>: 18-2-23/DH/1</t>
   </si>
   <si>
     <t>V. ROOM</t>
@@ -41,13 +41,13 @@
     <t>No. KTP/SIM</t>
   </si>
   <si>
-    <t>: 1111112344232</t>
+    <t>: 1</t>
   </si>
   <si>
     <t>Nama / Name</t>
   </si>
   <si>
-    <t>: bustamar</t>
+    <t>: Said Jumadil Akbar</t>
   </si>
   <si>
     <t>Standart</t>
@@ -56,7 +56,7 @@
     <t>Alamat / Address</t>
   </si>
   <si>
-    <t>: MEDAN</t>
+    <t>: Banda</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -65,7 +65,7 @@
     <t>Tgl Pembayaran</t>
   </si>
   <si>
-    <t>: 27 Januari 2023</t>
+    <t>: 18 Februari 2023</t>
   </si>
   <si>
     <t xml:space="preserve">        </t>
@@ -104,13 +104,13 @@
     <t>Sub Total</t>
   </si>
   <si>
-    <t>26/1/2023</t>
-  </si>
-  <si>
-    <t>27/1/2023</t>
-  </si>
-  <si>
-    <t>103</t>
+    <t>17/2/2023</t>
+  </si>
+  <si>
+    <t>18/2/2023</t>
+  </si>
+  <si>
+    <t>102</t>
   </si>
   <si>
     <t>Rp. 380000</t>
@@ -119,7 +119,7 @@
     <t>Rp. 0</t>
   </si>
   <si>
-    <t>2</t>
+    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">Extra Bed  </t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">tiga ratus delapan puluh  ribu </t>
   </si>
   <si>
-    <t>Bireun, 27 Januari 2023</t>
+    <t>Bireun, 18 Februari 2023</t>
   </si>
   <si>
     <t>Bireuen, 25 Juli 2018</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">    </t>
   </si>
   <si>
-    <t>bustamar</t>
+    <t>Said Jumadil Akbar</t>
   </si>
   <si>
     <t>Novita Sari</t>
